--- a/src/test/resources/example/IF0001/UT0001/expected_DB_H2_001.xlsx
+++ b/src/test/resources/example/IF0001/UT0001/expected_DB_H2_001.xlsx
@@ -96,7 +96,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,9 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/src/test/resources/example/IF0001/UT0001/expected_DB_H2_001.xlsx
+++ b/src/test/resources/example/IF0001/UT0001/expected_DB_H2_001.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>0001</t>
     <phoneticPr fontId="1"/>
@@ -29,31 +29,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SALARY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ignore]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015-02-11 13:22:11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SALARY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BIRTHDAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Taro</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jiro</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[ignore]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,7 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -465,16 +471,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -482,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -496,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
